--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.6887791510872</v>
+        <v>91.81979866666666</v>
       </c>
       <c r="H2">
-        <v>31.6887791510872</v>
+        <v>275.459396</v>
       </c>
       <c r="I2">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="J2">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.08061380371088</v>
+        <v>3.242491666666667</v>
       </c>
       <c r="N2">
-        <v>3.08061380371088</v>
+        <v>9.727475</v>
       </c>
       <c r="O2">
-        <v>0.1418733399034341</v>
+        <v>0.1451908054631944</v>
       </c>
       <c r="P2">
-        <v>0.1418733399034341</v>
+        <v>0.1451908054631944</v>
       </c>
       <c r="Q2">
-        <v>97.62089047558477</v>
+        <v>297.7249320116777</v>
       </c>
       <c r="R2">
-        <v>97.62089047558477</v>
+        <v>2679.5243881051</v>
       </c>
       <c r="S2">
-        <v>0.001024205894783223</v>
+        <v>0.002979257027403827</v>
       </c>
       <c r="T2">
-        <v>0.001024205894783223</v>
+        <v>0.002979257027403827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.6887791510872</v>
+        <v>91.81979866666666</v>
       </c>
       <c r="H3">
-        <v>31.6887791510872</v>
+        <v>275.459396</v>
       </c>
       <c r="I3">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="J3">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.8173931165305</v>
+        <v>14.96261833333333</v>
       </c>
       <c r="N3">
-        <v>14.8173931165305</v>
+        <v>44.887855</v>
       </c>
       <c r="O3">
-        <v>0.6823942188313423</v>
+        <v>0.6699892647336619</v>
       </c>
       <c r="P3">
-        <v>0.6823942188313423</v>
+        <v>0.669989264733662</v>
       </c>
       <c r="Q3">
-        <v>469.5450980645747</v>
+        <v>1373.864602892842</v>
       </c>
       <c r="R3">
-        <v>469.5450980645747</v>
+        <v>12364.78142603558</v>
       </c>
       <c r="S3">
-        <v>0.004926310904985865</v>
+        <v>0.01374791068122344</v>
       </c>
       <c r="T3">
-        <v>0.004926310904985865</v>
+        <v>0.01374791068122345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.6887791510872</v>
+        <v>91.81979866666666</v>
       </c>
       <c r="H4">
-        <v>31.6887791510872</v>
+        <v>275.459396</v>
       </c>
       <c r="I4">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="J4">
-        <v>0.007219156858366397</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.81582462702251</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N4">
-        <v>3.81582462702251</v>
+        <v>0.017549</v>
       </c>
       <c r="O4">
-        <v>0.1757324412652236</v>
+        <v>0.0002619336924611575</v>
       </c>
       <c r="P4">
-        <v>0.1757324412652236</v>
+        <v>0.0002619336924611575</v>
       </c>
       <c r="Q4">
-        <v>120.918823884996</v>
+        <v>0.5371152156004444</v>
       </c>
       <c r="R4">
-        <v>120.918823884996</v>
+        <v>4.834036940403999</v>
       </c>
       <c r="S4">
-        <v>0.001268640058597309</v>
+        <v>5.374774191032078E-06</v>
       </c>
       <c r="T4">
-        <v>0.001268640058597309</v>
+        <v>5.374774191032078E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4321.38298460534</v>
+        <v>91.81979866666666</v>
       </c>
       <c r="H5">
-        <v>4321.38298460534</v>
+        <v>275.459396</v>
       </c>
       <c r="I5">
-        <v>0.9844728148787384</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="J5">
-        <v>0.9844728148787384</v>
+        <v>0.02051959845459404</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08061380371088</v>
+        <v>4.121664333333333</v>
       </c>
       <c r="N5">
-        <v>3.08061380371088</v>
+        <v>12.364993</v>
       </c>
       <c r="O5">
-        <v>0.1418733399034341</v>
+        <v>0.1845579961106824</v>
       </c>
       <c r="P5">
-        <v>0.1418733399034341</v>
+        <v>0.1845579961106824</v>
       </c>
       <c r="Q5">
-        <v>13312.51207349653</v>
+        <v>378.4503892582475</v>
       </c>
       <c r="R5">
-        <v>13312.51207349653</v>
+        <v>3406.053503324228</v>
       </c>
       <c r="S5">
-        <v>0.1396704462909818</v>
+        <v>0.003787055971775731</v>
       </c>
       <c r="T5">
-        <v>0.1396704462909818</v>
+        <v>0.003787055971775732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4321.38298460534</v>
+        <v>4345.262939666666</v>
       </c>
       <c r="H6">
-        <v>4321.38298460534</v>
+        <v>13035.788819</v>
       </c>
       <c r="I6">
-        <v>0.9844728148787384</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="J6">
-        <v>0.9844728148787384</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.8173931165305</v>
+        <v>3.242491666666667</v>
       </c>
       <c r="N6">
-        <v>14.8173931165305</v>
+        <v>9.727475</v>
       </c>
       <c r="O6">
-        <v>0.6823942188313423</v>
+        <v>0.1451908054631944</v>
       </c>
       <c r="P6">
-        <v>0.6823942188313423</v>
+        <v>0.1451908054631944</v>
       </c>
       <c r="Q6">
-        <v>64031.6304899832</v>
+        <v>14089.47887134467</v>
       </c>
       <c r="R6">
-        <v>64031.6304899832</v>
+        <v>126805.309842102</v>
       </c>
       <c r="S6">
-        <v>0.6717985574698694</v>
+        <v>0.1409898010767365</v>
       </c>
       <c r="T6">
-        <v>0.6717985574698694</v>
+        <v>0.1409898010767365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4321.38298460534</v>
+        <v>4345.262939666666</v>
       </c>
       <c r="H7">
-        <v>4321.38298460534</v>
+        <v>13035.788819</v>
       </c>
       <c r="I7">
-        <v>0.9844728148787384</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="J7">
-        <v>0.9844728148787384</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.81582462702251</v>
+        <v>14.96261833333333</v>
       </c>
       <c r="N7">
-        <v>3.81582462702251</v>
+        <v>44.887855</v>
       </c>
       <c r="O7">
-        <v>0.1757324412652236</v>
+        <v>0.6699892647336619</v>
       </c>
       <c r="P7">
-        <v>0.1757324412652236</v>
+        <v>0.669989264733662</v>
       </c>
       <c r="Q7">
-        <v>16489.6396154531</v>
+        <v>65016.51092421035</v>
       </c>
       <c r="R7">
-        <v>16489.6396154531</v>
+        <v>585148.5983178932</v>
       </c>
       <c r="S7">
-        <v>0.1730038111178872</v>
+        <v>0.6506035479105721</v>
       </c>
       <c r="T7">
-        <v>0.1730038111178872</v>
+        <v>0.6506035479105722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.4684239405009</v>
+        <v>4345.262939666666</v>
       </c>
       <c r="H8">
-        <v>36.4684239405009</v>
+        <v>13035.788819</v>
       </c>
       <c r="I8">
-        <v>0.008308028262895319</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="J8">
-        <v>0.008308028262895319</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.08061380371088</v>
+        <v>0.005849666666666666</v>
       </c>
       <c r="N8">
-        <v>3.08061380371088</v>
+        <v>0.017549</v>
       </c>
       <c r="O8">
-        <v>0.1418733399034341</v>
+        <v>0.0002619336924611575</v>
       </c>
       <c r="P8">
-        <v>0.1418733399034341</v>
+        <v>0.0002619336924611575</v>
       </c>
       <c r="Q8">
-        <v>112.3451301906874</v>
+        <v>25.41833977607011</v>
       </c>
       <c r="R8">
-        <v>112.3451301906874</v>
+        <v>228.765057984631</v>
       </c>
       <c r="S8">
-        <v>0.001178687717669085</v>
+        <v>0.0002543548062673663</v>
       </c>
       <c r="T8">
-        <v>0.001178687717669085</v>
+        <v>0.0002543548062673663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.4684239405009</v>
+        <v>4345.262939666666</v>
       </c>
       <c r="H9">
-        <v>36.4684239405009</v>
+        <v>13035.788819</v>
       </c>
       <c r="I9">
-        <v>0.008308028262895319</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="J9">
-        <v>0.008308028262895319</v>
+        <v>0.9710656306847003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.8173931165305</v>
+        <v>4.121664333333333</v>
       </c>
       <c r="N9">
-        <v>14.8173931165305</v>
+        <v>12.364993</v>
       </c>
       <c r="O9">
-        <v>0.6823942188313423</v>
+        <v>0.1845579961106824</v>
       </c>
       <c r="P9">
-        <v>0.6823942188313423</v>
+        <v>0.1845579961106824</v>
       </c>
       <c r="Q9">
-        <v>540.3669738666941</v>
+        <v>17909.71527737925</v>
       </c>
       <c r="R9">
-        <v>540.3669738666941</v>
+        <v>161187.4374964133</v>
       </c>
       <c r="S9">
-        <v>0.005669350456487165</v>
+        <v>0.1792179268911243</v>
       </c>
       <c r="T9">
-        <v>0.005669350456487165</v>
+        <v>0.1792179268911243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08385233333333335</v>
+      </c>
+      <c r="H10">
+        <v>0.251557</v>
+      </c>
+      <c r="I10">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="J10">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.242491666666667</v>
+      </c>
+      <c r="N10">
+        <v>9.727475</v>
+      </c>
+      <c r="O10">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="P10">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="Q10">
+        <v>0.2718904920638889</v>
+      </c>
+      <c r="R10">
+        <v>2.447014428575</v>
+      </c>
+      <c r="S10">
+        <v>2.720738413448872E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.720738413448872E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08385233333333335</v>
+      </c>
+      <c r="H11">
+        <v>0.251557</v>
+      </c>
+      <c r="I11">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="J11">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.96261833333333</v>
+      </c>
+      <c r="N11">
+        <v>44.887855</v>
+      </c>
+      <c r="O11">
+        <v>0.6699892647336619</v>
+      </c>
+      <c r="P11">
+        <v>0.669989264733662</v>
+      </c>
+      <c r="Q11">
+        <v>1.254650460026111</v>
+      </c>
+      <c r="R11">
+        <v>11.291854140235</v>
+      </c>
+      <c r="S11">
+        <v>1.255496533230083E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.255496533230083E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08385233333333335</v>
+      </c>
+      <c r="H12">
+        <v>0.251557</v>
+      </c>
+      <c r="I12">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="J12">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.005849666666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.017549</v>
+      </c>
+      <c r="O12">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="P12">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="Q12">
+        <v>0.0004905081992222222</v>
+      </c>
+      <c r="R12">
+        <v>0.004414573793</v>
+      </c>
+      <c r="S12">
+        <v>4.908389732958888E-09</v>
+      </c>
+      <c r="T12">
+        <v>4.908389732958888E-09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08385233333333335</v>
+      </c>
+      <c r="H13">
+        <v>0.251557</v>
+      </c>
+      <c r="I13">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="J13">
+        <v>1.873905447916655E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.121664333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.364993</v>
+      </c>
+      <c r="O13">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="P13">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="Q13">
+        <v>0.3456111715667778</v>
+      </c>
+      <c r="R13">
+        <v>3.110500544101</v>
+      </c>
+      <c r="S13">
+        <v>3.458442343683887E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.458442343683887E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3677673333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.103302</v>
+      </c>
+      <c r="I14">
+        <v>8.218748150508002E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.218748150508001E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.242491666666667</v>
+      </c>
+      <c r="N14">
+        <v>9.727475</v>
+      </c>
+      <c r="O14">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="P14">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="Q14">
+        <v>1.192482513605555</v>
+      </c>
+      <c r="R14">
+        <v>10.73234262245</v>
+      </c>
+      <c r="S14">
+        <v>1.193286663871396E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.193286663871396E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3677673333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.103302</v>
+      </c>
+      <c r="I15">
+        <v>8.218748150508002E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.218748150508001E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.96261833333333</v>
+      </c>
+      <c r="N15">
+        <v>44.887855</v>
+      </c>
+      <c r="O15">
+        <v>0.6699892647336619</v>
+      </c>
+      <c r="P15">
+        <v>0.669989264733662</v>
+      </c>
+      <c r="Q15">
+        <v>5.502762244134445</v>
+      </c>
+      <c r="R15">
+        <v>49.52486019721</v>
+      </c>
+      <c r="S15">
+        <v>5.50647303039E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.50647303039E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3677673333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.103302</v>
+      </c>
+      <c r="I16">
+        <v>8.218748150508002E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.218748150508001E-05</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.005849666666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.017549</v>
+      </c>
+      <c r="O16">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="P16">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="Q16">
+        <v>0.002151316310888889</v>
+      </c>
+      <c r="R16">
+        <v>0.019361846798</v>
+      </c>
+      <c r="S16">
+        <v>2.15276705047087E-08</v>
+      </c>
+      <c r="T16">
+        <v>2.15276705047087E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3677673333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.103302</v>
+      </c>
+      <c r="I17">
+        <v>8.218748150508002E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.218748150508001E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.121664333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.364993</v>
+      </c>
+      <c r="O17">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="P17">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="Q17">
+        <v>1.515813500765111</v>
+      </c>
+      <c r="R17">
+        <v>13.642321506886</v>
+      </c>
+      <c r="S17">
+        <v>1.516835689196134E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.516835689196134E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>37.20226366666666</v>
+      </c>
+      <c r="H18">
+        <v>111.606791</v>
+      </c>
+      <c r="I18">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="J18">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.242491666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.727475</v>
+      </c>
+      <c r="O18">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="P18">
+        <v>0.1451908054631944</v>
+      </c>
+      <c r="Q18">
+        <v>120.6280299203028</v>
+      </c>
+      <c r="R18">
+        <v>1085.652269282725</v>
+      </c>
+      <c r="S18">
+        <v>0.001207093754001915</v>
+      </c>
+      <c r="T18">
+        <v>0.001207093754001915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>37.20226366666666</v>
+      </c>
+      <c r="H19">
+        <v>111.606791</v>
+      </c>
+      <c r="I19">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="J19">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.96261833333333</v>
+      </c>
+      <c r="N19">
+        <v>44.887855</v>
+      </c>
+      <c r="O19">
+        <v>0.6699892647336619</v>
+      </c>
+      <c r="P19">
+        <v>0.669989264733662</v>
+      </c>
+      <c r="Q19">
+        <v>556.6432723803671</v>
+      </c>
+      <c r="R19">
+        <v>5009.789451423305</v>
+      </c>
+      <c r="S19">
+        <v>0.005570186446230255</v>
+      </c>
+      <c r="T19">
+        <v>0.005570186446230255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>36.4684239405009</v>
-      </c>
-      <c r="H10">
-        <v>36.4684239405009</v>
-      </c>
-      <c r="I10">
-        <v>0.008308028262895319</v>
-      </c>
-      <c r="J10">
-        <v>0.008308028262895319</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.81582462702251</v>
-      </c>
-      <c r="N10">
-        <v>3.81582462702251</v>
-      </c>
-      <c r="O10">
-        <v>0.1757324412652236</v>
-      </c>
-      <c r="P10">
-        <v>0.1757324412652236</v>
-      </c>
-      <c r="Q10">
-        <v>139.1571101808606</v>
-      </c>
-      <c r="R10">
-        <v>139.1571101808606</v>
-      </c>
-      <c r="S10">
-        <v>0.001459990088739069</v>
-      </c>
-      <c r="T10">
-        <v>0.001459990088739069</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>37.20226366666666</v>
+      </c>
+      <c r="H20">
+        <v>111.606791</v>
+      </c>
+      <c r="I20">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="J20">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.005849666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.017549</v>
+      </c>
+      <c r="O20">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="P20">
+        <v>0.0002619336924611575</v>
+      </c>
+      <c r="Q20">
+        <v>0.2176208416954444</v>
+      </c>
+      <c r="R20">
+        <v>1.958587575259</v>
+      </c>
+      <c r="S20">
+        <v>2.177675942521529E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.177675942521529E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>37.20226366666666</v>
+      </c>
+      <c r="H21">
+        <v>111.606791</v>
+      </c>
+      <c r="I21">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="J21">
+        <v>0.008313844324721454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.121664333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.364993</v>
+      </c>
+      <c r="O21">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="P21">
+        <v>0.1845579961106824</v>
+      </c>
+      <c r="Q21">
+        <v>153.3352432741625</v>
+      </c>
+      <c r="R21">
+        <v>1380.017189467463</v>
+      </c>
+      <c r="S21">
+        <v>0.001534386448546761</v>
+      </c>
+      <c r="T21">
+        <v>0.001534386448546761</v>
       </c>
     </row>
   </sheetData>
